--- a/데이터베이스설계/테이블명세-학사정보.xlsx
+++ b/데이터베이스설계/테이블명세-학사정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50522\Documents\workspace\dbms\데이터베이스설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC31E10-847E-4420-8CF4-6B3DE134EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC397A-62BF-4A2A-BFC8-6559757582D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,6 +133,104 @@
   </si>
   <si>
     <t>학사정보의 학생정보를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>학생이름</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>학년</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(120)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,6 +775,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,22 +799,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1717,20 +1815,20 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="40">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44867</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1742,36 +1840,36 @@
       <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2078,10 +2176,10 @@
       <c r="B27" s="24">
         <v>1</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="30">
         <v>44867</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="25"/>
@@ -2221,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61928B0-0820-4DEE-96E7-1AA962B5E360}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R4" activeCellId="1" sqref="B34 R4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2880,20 +2978,20 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="40">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38">
         <v>44867</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2905,36 +3003,36 @@
       <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2975,12 +3073,24 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2990,11 +3100,21 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -3005,10 +3125,18 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3020,10 +3148,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3035,10 +3171,18 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -3050,10 +3194,18 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3241,10 +3393,10 @@
       <c r="B27" s="24">
         <v>1</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="30">
         <v>44867</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="25"/>
@@ -3362,12 +3514,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
